--- a/src/main/resources/xls_samples/Rasporyazhenie_na_provedenie_platezhei_KaznaSbyt.xlsx
+++ b/src/main/resources/xls_samples/Rasporyazhenie_na_provedenie_platezhei_KaznaSbyt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20382"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJ\xlsToPdfConverters\src\main\resources\xls_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB99541-D66F-4678-B83F-CFEA831F6415}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,18 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
   <si>
     <t>УТВЕРЖДАЮ</t>
   </si>
   <si>
     <t>Генеральный директор ____________________</t>
-  </si>
-  <si>
-    <t>Распоряжение на проведение платежей на 15 апреля 2022 г.</t>
-  </si>
-  <si>
-    <t>15 апреля 2022 г.</t>
   </si>
   <si>
     <t>.</t>
@@ -85,75 +78,27 @@
     <t>Денежные средства</t>
   </si>
   <si>
-    <t>Раздел 1. Наличные платежи</t>
-  </si>
-  <si>
     <t>в том числе наличные платежи по разовым счетам</t>
   </si>
   <si>
     <t>Всего наличных платежей</t>
   </si>
   <si>
-    <t>Раздел 2. Безналичные платежи</t>
-  </si>
-  <si>
-    <t>ОР000005100</t>
-  </si>
-  <si>
     <t>ОР000005000</t>
   </si>
   <si>
-    <t>03.01.02.21.00.00.00</t>
-  </si>
-  <si>
-    <t>8.3.</t>
-  </si>
-  <si>
     <t>Управление по коммерческим услугам</t>
   </si>
   <si>
-    <t>Газпром межрегионгаз Орел ООО</t>
-  </si>
-  <si>
-    <t>Договор о порядке взаимодействия при переводах денежных средств физических лиц № 100269 от 03.07.17г</t>
-  </si>
-  <si>
-    <t>Принятые платежи физ.лиц по реестру от 14.04.2022г. №ES220413.DBF; SE220413 Договор №100269 от 03.07.17г. Сумма 149003-34 Без налога (НДС)</t>
-  </si>
-  <si>
-    <t>ВОРОНЕЖСКИЙ ФИЛИАЛ АБ "РОССИЯ"</t>
-  </si>
-  <si>
-    <t>ОР000005103</t>
-  </si>
-  <si>
     <t>ОР000005006</t>
   </si>
   <si>
     <t>УСР ООО</t>
   </si>
   <si>
-    <t>Агентский договор №б/н от 01.11.2012г.</t>
-  </si>
-  <si>
-    <t>Принятые платежи физ.лиц за 07-13.04.22 по договору №б/н от 01.11.2012г. Сумма 451-87 Без налога (НДС)</t>
-  </si>
-  <si>
     <t>ПАО "БАНК УРАЛСИБ"</t>
   </si>
   <si>
-    <t>ИТОГО по счету ГАЗПРОМБАНК (ПЛАТЕЖНЫЙ АГЕНТ) 0070</t>
-  </si>
-  <si>
-    <t>ОР000005099</t>
-  </si>
-  <si>
-    <t>ОР000004868</t>
-  </si>
-  <si>
-    <t>7.1.</t>
-  </si>
-  <si>
     <t>Финансовый отдел (ФО)</t>
   </si>
   <si>
@@ -163,36 +108,12 @@
     <t>Договор на открытие счета</t>
   </si>
   <si>
-    <t>Пополнение расчетного счета Сумма 145000-00 Без налога (НДС)</t>
-  </si>
-  <si>
-    <t>БАНК ГПБ (АО)</t>
-  </si>
-  <si>
-    <t>ИТОГО по счету Банк РОССИЯ основной 155</t>
-  </si>
-  <si>
-    <t>ОР000005101</t>
-  </si>
-  <si>
     <t>ОР000005004</t>
   </si>
   <si>
-    <t>Принятые платежи физ.лиц по реестру от 14.04.22г. №ES220413.DBF; SE220413 Договор №100269 от 03.07.17г. Сумма 90173-40 Без налога (НДС)</t>
-  </si>
-  <si>
-    <t>ОР000005102</t>
-  </si>
-  <si>
     <t>ОР000005005</t>
   </si>
   <si>
-    <t>Принятые платежи физ.лиц по реестру (ЛКК) от 15.04.22г. №ES220414.DBF; SE220414 Договор №100269 от 03.07.17г. Сумма 24977-85 Без налога (НДС)</t>
-  </si>
-  <si>
-    <t>ИТОГО по счету 40702810692000004020</t>
-  </si>
-  <si>
     <t>в том числе безналичные платежи по разовым счетам</t>
   </si>
   <si>
@@ -223,79 +144,133 @@
     <t>БАНК "ВБРР" (АО)</t>
   </si>
   <si>
-    <t>40702810509000001193</t>
-  </si>
-  <si>
     <t>ОТДЕЛЕНИЕ ОРЕЛ</t>
   </si>
   <si>
-    <t>40601810345252000014</t>
-  </si>
-  <si>
-    <t>40821810200000000070</t>
-  </si>
-  <si>
-    <t>ОРЛОВСКИЙ ФИЛИАЛ АБ "РОССИЯ"</t>
-  </si>
-  <si>
-    <t>40702810100130001149</t>
-  </si>
-  <si>
-    <t>Ф-Л БАНКА ГПБ (АО) "СРЕДНЕРУССКИЙ"</t>
-  </si>
-  <si>
-    <t>40702810400047304819</t>
-  </si>
-  <si>
-    <t>ОРЛОВСКОЕ ОТДЕЛЕНИЕ N8595 ПАО СБЕРБАНК</t>
-  </si>
-  <si>
-    <t>40702810747000001682</t>
-  </si>
-  <si>
-    <t>40821810300130000009</t>
-  </si>
-  <si>
-    <t>ЦЕНТРАЛЬНЫЙ ФИЛИАЛ АБ "РОССИЯ"</t>
-  </si>
-  <si>
-    <t>40702810860016000155</t>
-  </si>
-  <si>
-    <t>40702810792000014020</t>
-  </si>
-  <si>
-    <t>40702810347000051540</t>
-  </si>
-  <si>
-    <t>40702810647000050160</t>
-  </si>
-  <si>
-    <t>40702810547000070091</t>
-  </si>
-  <si>
-    <t>40702810847170010128</t>
-  </si>
-  <si>
-    <t>40702810647170040071</t>
-  </si>
-  <si>
-    <t>40702810692000004020</t>
-  </si>
-  <si>
     <t xml:space="preserve">   наличные денежные средства (касса)</t>
   </si>
   <si>
     <t>Директор по экономике и финансам</t>
   </si>
   <si>
-    <t xml:space="preserve">  ______________________Гостев С.Н.</t>
+    <t>ХХХХХХ межрегионгаз Орел ООО</t>
+  </si>
+  <si>
+    <t>ИТОГО по счету ХХХХХХБАНК (ПЛАТЕЖНЫЙ АГЕНТ) 0000</t>
+  </si>
+  <si>
+    <t>Раздел 0. Безналичные платежи</t>
+  </si>
+  <si>
+    <t>0.3.</t>
+  </si>
+  <si>
+    <t>ОР000004060</t>
+  </si>
+  <si>
+    <t>Распоряжение на проведение платежей на 05 апреля 0000 г.</t>
+  </si>
+  <si>
+    <t>05 апреля 0000 г.</t>
+  </si>
+  <si>
+    <t>Раздел 0. Наличные платежи</t>
+  </si>
+  <si>
+    <t>03.00.00.00.00.00.00</t>
+  </si>
+  <si>
+    <t>Договор о порядке взаимодействия при переводах денежных средств физических лиц № 000060 от 03.00.00г</t>
+  </si>
+  <si>
+    <t>Принятые платежи физ.лиц по реестру от 04.04.0000г. №ES000403.DBF; SE000403 Договор №000060 от 03.00.00г. Сумма 040003-34 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>ОР000005003</t>
+  </si>
+  <si>
+    <t>Агентский договор №б/н от 00.00.0000г.</t>
+  </si>
+  <si>
+    <t>Принятые платежи физ.лиц за 00-03.04.00 по договору №б/н от 00.00.0000г. Сумма 450-00 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>0.0.</t>
+  </si>
+  <si>
+    <t>Пополнение расчетного счета Сумма 045000-00 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>Принятые платежи физ.лиц по реестру от 04.04.00г. №ES000403.DBF; SE000403 Договор №000060 от 03.00.00г. Сумма 00003-40 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>Принятые платежи физ.лиц по реестру (ЛКК) от 05.04.00г. №ES000404.DBF; SE000404 Договор №000060 от 03.00.00г. Сумма 04000-05 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>ИТОГО по счету 40000000600000004000</t>
+  </si>
+  <si>
+    <t>ВОРОНЕЖСКИЙ ФИЛИАЛ АБ "хххххххх"</t>
+  </si>
+  <si>
+    <t>ИТОГО по счету Банк хххххххх основной 055</t>
+  </si>
+  <si>
+    <t>ОРЛОВСКИЙ ФИЛИАЛ АБ "хххххххх"</t>
+  </si>
+  <si>
+    <t>ЦЕНТРАЛЬНЫЙ ФИЛИАЛ АБ "хххххххх"</t>
+  </si>
+  <si>
+    <t>40000000500000000000</t>
+  </si>
+  <si>
+    <t>40600000345050000000</t>
+  </si>
+  <si>
+    <t>40000000000000000000</t>
+  </si>
+  <si>
+    <t>40000000000030000000</t>
+  </si>
+  <si>
+    <t>40000000400040300000</t>
+  </si>
+  <si>
+    <t>40000000040000000000</t>
+  </si>
+  <si>
+    <t>40000000300030000000</t>
+  </si>
+  <si>
+    <t>40000000060006000000</t>
+  </si>
+  <si>
+    <t>40000000340000000000</t>
+  </si>
+  <si>
+    <t>40000000640000000000</t>
+  </si>
+  <si>
+    <t>40000000540000000000</t>
+  </si>
+  <si>
+    <t>ОРЛОВСКОЕ ОТДЕЛЕНИЕ N0505 ПАО хххххххх</t>
+  </si>
+  <si>
+    <t>БАНК ХХХ (АО)</t>
+  </si>
+  <si>
+    <t>Ф-Л БАНКА ХХХ (АО) "СРЕДНЕРУССКИЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ______________________Росев С.Н.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
@@ -448,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -537,46 +512,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -672,23 +650,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -724,23 +685,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -916,14 +860,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A2:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -952,87 +896,87 @@
     <row r="5" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="2" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="C11" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="D11" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="E11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="F11" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="G11" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="H11" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="I11" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="J11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="K11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="L11" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="M11" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="N11" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="32" t="s">
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="41"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
@@ -1047,33 +991,33 @@
         <v>6</v>
       </c>
       <c r="G13" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K13" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L13" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M13" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N13" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1091,7 +1035,7 @@
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1109,7 +1053,7 @@
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
@@ -1117,7 +1061,7 @@
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1135,87 +1079,87 @@
     </row>
     <row r="18" spans="1:14" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="J18" s="19">
-        <v>149003.34</v>
+        <v>40003.339999999997</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="L18" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
     </row>
     <row r="19" spans="1:14" ht="89.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="J19" s="22">
-        <v>451.87</v>
+        <v>450</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="L19" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
     </row>
     <row r="20" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -1226,72 +1170,72 @@
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
       <c r="J20" s="23">
-        <v>149455.21</v>
-      </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
+        <v>40455</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
     </row>
     <row r="22" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>44</v>
-      </c>
       <c r="H22" s="18" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J22" s="19">
-        <v>145000</v>
+        <v>45000</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="L22" s="16">
-        <v>4020</v>
+        <v>4000</v>
       </c>
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
     </row>
     <row r="23" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -1302,112 +1246,112 @@
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
       <c r="J23" s="23">
-        <v>145000</v>
-      </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
+        <v>45000</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
     </row>
     <row r="24" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
     </row>
     <row r="25" spans="1:14" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J25" s="19">
-        <v>90173.4</v>
+        <v>3.4</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="L25" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
     </row>
     <row r="26" spans="1:14" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>30</v>
-      </c>
       <c r="I26" s="18" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J26" s="19">
-        <v>24977.85</v>
+        <v>4000.05</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="L26" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
     </row>
     <row r="27" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -1418,32 +1362,32 @@
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="23">
-        <v>115151.25</v>
-      </c>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
+        <v>5050.05</v>
+      </c>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
     </row>
     <row r="28" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1460,353 +1404,306 @@
       <c r="N29" s="11"/>
     </row>
     <row r="31" spans="1:14" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
+      <c r="B31" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
       <c r="F31" s="24">
-        <v>409606.46</v>
+        <v>400606.46</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="36" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
       <c r="F32" s="24">
-        <v>409606.46</v>
+        <v>400606.46</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:6" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="17" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:6" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
+      <c r="B35" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="25">
-        <v>33457888.239999998</v>
+        <v>33450000.039999999</v>
       </c>
     </row>
     <row r="36" spans="2:6" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
+      <c r="B36" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="26">
-        <v>33457888.239999998</v>
+        <v>33450000.039999999</v>
       </c>
     </row>
     <row r="37" spans="2:6" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40" t="s">
+      <c r="B37" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="44"/>
+      <c r="F38" s="24">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="44"/>
+      <c r="F39" s="24">
+        <v>600440.6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="44"/>
+      <c r="F40" s="24">
+        <v>5300.6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="37" t="s">
+      <c r="C41" s="31"/>
+      <c r="D41" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="44"/>
+      <c r="F41" s="24">
+        <v>55060.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="44"/>
+      <c r="F42" s="24">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="31"/>
+      <c r="D43" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="44"/>
+      <c r="F43" s="24">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="31"/>
+      <c r="D44" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="44"/>
+      <c r="F44" s="24">
+        <v>45000.03</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="31"/>
+      <c r="D45" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="44"/>
+      <c r="F45" s="24">
+        <v>30600046</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="24">
-        <v>8374.07</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="40" t="s">
+      <c r="C46" s="31"/>
+      <c r="D46" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="44"/>
+      <c r="F46" s="24">
+        <v>5500.04</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="31"/>
+      <c r="D47" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="24">
-        <v>629448.6</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="24">
-        <v>185389.68</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="40" t="s">
+      <c r="E47" s="44"/>
+      <c r="F47" s="24">
+        <v>3040.05</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="31"/>
+      <c r="D48" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="44"/>
+      <c r="F48" s="24">
+        <v>56404</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="31"/>
+      <c r="D49" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="44"/>
+      <c r="F49" s="24">
+        <v>50046.3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="31"/>
+      <c r="D50" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="44"/>
+      <c r="F50" s="24">
+        <v>6355.43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="31"/>
+      <c r="D51" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="24">
-        <v>255862.5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="24">
-        <v>190729.76</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="40" t="s">
+      <c r="E51" s="44"/>
+      <c r="F51" s="24">
+        <v>33004.03</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="31"/>
+      <c r="D52" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="24">
-        <v>203397.81</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="40"/>
-      <c r="F44" s="24">
-        <v>45809.93</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="24">
-        <v>31689946.890000001</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="40" t="s">
+      <c r="E52" s="44"/>
+      <c r="F52" s="24">
+        <v>643.63</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="40"/>
-      <c r="F46" s="24">
-        <v>5598.14</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="24">
-        <v>3248.15</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" s="40"/>
-      <c r="F48" s="24">
-        <v>56404.28</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="37"/>
-      <c r="D49" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="24">
-        <v>58946.39</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="40"/>
-      <c r="F50" s="24">
-        <v>196355.43</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="24">
-        <v>33884.230000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="40"/>
-      <c r="F52" s="24">
-        <v>9643.6299999999992</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="37"/>
-      <c r="D53" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" s="40"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="44">
+        <v>4.0000000600000004E+19</v>
+      </c>
+      <c r="E53" s="44"/>
       <c r="F53" s="24">
-        <v>-115151.25</v>
+        <v>-5050.05</v>
       </c>
     </row>
     <row r="54" spans="2:6" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
+      <c r="B54" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="27"/>
     </row>
     <row r="56" spans="2:6" s="28" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D56" s="29" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A28:N28"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="A21:N21"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="K27:N27"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="N11:N12"/>
@@ -1822,6 +1719,53 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A21:N21"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="A28:N28"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
   </mergeCells>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
